--- a/data/param_tuning/Dataset4/cnn_num.xlsx
+++ b/data/param_tuning/Dataset4/cnn_num.xlsx
@@ -456,22 +456,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.8074</t>
+          <t>0.5976</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.5791</t>
+          <t>0.3933</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.5279</t>
+          <t>0.4694</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.5315</t>
+          <t>0.3789</t>
         </is>
       </c>
     </row>
@@ -483,22 +483,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.7875</t>
+          <t>0.7134</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.5914</t>
+          <t>0.2094</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.6254</t>
+          <t>0.2231</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.5695</t>
+          <t>0.1948</t>
         </is>
       </c>
     </row>
@@ -510,22 +510,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.8052</t>
+          <t>0.7805</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.5506</t>
+          <t>0.2636</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.5118</t>
+          <t>0.2967</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.511</t>
+          <t>0.2597</t>
         </is>
       </c>
     </row>
@@ -537,22 +537,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.8081</t>
+          <t>0.7683</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.5297</t>
+          <t>0.3039</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.4843</t>
+          <t>0.3481</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.4744</t>
+          <t>0.3088</t>
         </is>
       </c>
     </row>
@@ -564,22 +564,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.8133</t>
+          <t>0.7866</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.5745</t>
+          <t>0.3095</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.5205</t>
+          <t>0.3972</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.5143</t>
+          <t>0.3113</t>
         </is>
       </c>
     </row>
@@ -591,22 +591,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.8118</t>
+          <t>0.7866</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.6471</t>
+          <t>0.3476</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.3707</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.5606</t>
+          <t>0.3397</t>
         </is>
       </c>
     </row>
@@ -618,22 +618,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.8096</t>
+          <t>0.7744</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.5726</t>
+          <t>0.3191</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.5556</t>
+          <t>0.3467</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.5387</t>
+          <t>0.3042</t>
         </is>
       </c>
     </row>
@@ -645,22 +645,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.8266</t>
+          <t>0.7744</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.6329</t>
+          <t>0.3873</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.5648</t>
+          <t>0.3821</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.556</t>
+          <t>0.376</t>
         </is>
       </c>
     </row>
